--- a/src/main/java/com/coffee/ImportExcel/excel_ template/Discount.xlsx
+++ b/src/main/java/com/coffee/ImportExcel/excel_ template/Discount.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\cafe_application\src\main\java\com\coffee\ImportExcel\excel_ template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F9ED91-8CEE-4BB3-AE28-0870439852CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0F43A4-EB50-4562-8896-A83E414B6B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3984" yWindow="2328" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4332" yWindow="2676" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Các phiếu giảm giá" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>Tên</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>Không</t>
+  </si>
+  <si>
+    <t>Lễ 1/5</t>
   </si>
 </sst>
 </file>
@@ -432,7 +435,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -473,10 +476,10 @@
         <v>13</v>
       </c>
       <c r="C2" s="1">
-        <v>45413</v>
+        <v>45418</v>
       </c>
       <c r="D2" s="1">
-        <v>45412</v>
+        <v>45432</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -489,11 +492,14 @@
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
       <c r="C3" s="1">
-        <v>45397</v>
+        <v>45427</v>
       </c>
       <c r="D3" s="1">
-        <v>45398</v>
+        <v>45428</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>

--- a/src/main/java/com/coffee/ImportExcel/excel_ template/Discount.xlsx
+++ b/src/main/java/com/coffee/ImportExcel/excel_ template/Discount.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\cafe_application\src\main\java\com\coffee\ImportExcel\excel_ template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0F43A4-EB50-4562-8896-A83E414B6B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924B0330-C053-49D8-B97D-16744D1A6E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4332" yWindow="2676" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Các phiếu giảm giá" sheetId="1" r:id="rId1"/>
@@ -78,9 +78,6 @@
     <t>M</t>
   </si>
   <si>
-    <t>Lễ 30/4</t>
-  </si>
-  <si>
     <t>Đang áp dụng</t>
   </si>
   <si>
@@ -90,13 +87,16 @@
     <t>Tên sản phẩm</t>
   </si>
   <si>
-    <t>Phin Đen Đá</t>
-  </si>
-  <si>
     <t>Không</t>
   </si>
   <si>
-    <t>Lễ 1/5</t>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinh nhật cửa hàng </t>
+  </si>
+  <si>
+    <t>Trà Thạch Đào</t>
   </si>
 </sst>
 </file>
@@ -434,8 +434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -473,19 +473,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1">
         <v>45418</v>
       </c>
       <c r="D2" s="1">
-        <v>45432</v>
+        <v>45428</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -493,19 +493,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1">
-        <v>45427</v>
+        <v>45416</v>
       </c>
       <c r="D3" s="1">
-        <v>45428</v>
+        <v>45432</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -517,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA21EA31-C733-4FA4-BB42-EE9275C6B629}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -533,7 +533,7 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
         <v>8</v>
@@ -553,10 +553,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -565,47 +565,47 @@
         <v>10</v>
       </c>
       <c r="F2">
-        <v>20</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4">
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
         <v>0</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -613,7 +613,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -622,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F5">
         <v>0</v>

--- a/src/main/java/com/coffee/ImportExcel/excel_ template/Discount.xlsx
+++ b/src/main/java/com/coffee/ImportExcel/excel_ template/Discount.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\cafe_application\src\main\java\com\coffee\ImportExcel\excel_ template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924B0330-C053-49D8-B97D-16744D1A6E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B530FB04-BB17-4EDF-9F4B-6E5AF7DD4C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Các phiếu giảm giá" sheetId="1" r:id="rId1"/>
@@ -434,7 +434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -496,7 +496,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="1">
-        <v>45416</v>
+        <v>45418</v>
       </c>
       <c r="D3" s="1">
         <v>45432</v>
@@ -517,7 +517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA21EA31-C733-4FA4-BB42-EE9275C6B629}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
